--- a/Logistics/Rosters.xlsx
+++ b/Logistics/Rosters.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpruim/projects/github/JMM2019/Logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E52B310-E12F-7E43-946D-142A0168C790}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9A7713-7986-F548-BFF6-E31162A42872}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15500" xr2:uid="{AECAB193-3CA1-8242-A385-6889D200F4EB}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15500" activeTab="1" xr2:uid="{AECAB193-3CA1-8242-A385-6889D200F4EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="MC2" sheetId="2" r:id="rId1"/>
-    <sheet name="MC12" sheetId="1" r:id="rId2"/>
+    <sheet name="MC2" sheetId="3" r:id="rId1"/>
+    <sheet name="MC12" sheetId="4" r:id="rId2"/>
+    <sheet name="MC2-old" sheetId="2" r:id="rId3"/>
+    <sheet name="MC12-old" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
   <si>
     <t>Max</t>
   </si>
@@ -740,6 +742,21 @@
   </si>
   <si>
     <t>Ferris State University</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Baraban</t>
+  </si>
+  <si>
+    <t>asherb19@parkschool.net</t>
+  </si>
+  <si>
+    <t>The Park School of Baltimore</t>
+  </si>
+  <si>
+    <t>C.</t>
   </si>
 </sst>
 </file>
@@ -1122,11 +1139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFD9C0-D986-A445-9050-436C9C79EAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4F9ED-4C0F-9748-94FA-08046731256F}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,305 +1229,303 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1718,81 +1733,81 @@
     </row>
     <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="42" x14ac:dyDescent="0.2">
@@ -1846,6 +1861,1132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F72D6F-8F28-534C-A98A-B6F7ABB3A10C}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFD9C0-D986-A445-9050-436C9C79EAED}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1470E79-0876-1443-9948-BFC97695843C}">
   <dimension ref="A1:F25"/>
   <sheetViews>

--- a/Logistics/Rosters.xlsx
+++ b/Logistics/Rosters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpruim/projects/github/JMM2019/Logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9A7713-7986-F548-BFF6-E31162A42872}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CA6D8-C51A-B549-BF20-1217DD24385C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15500" activeTab="1" xr2:uid="{AECAB193-3CA1-8242-A385-6889D200F4EB}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15500" activeTab="3" xr2:uid="{AECAB193-3CA1-8242-A385-6889D200F4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="MC2" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="247">
   <si>
     <t>Max</t>
   </si>
@@ -757,13 +757,25 @@
   </si>
   <si>
     <t>C.</t>
+  </si>
+  <si>
+    <t>mali@jhu.edu</t>
+  </si>
+  <si>
+    <t>Muhammad</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Yousuf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -781,6 +793,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -818,12 +836,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1864,11 +1885,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F72D6F-8F28-534C-A98A-B6F7ABB3A10C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2988,13 +3013,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1470E79-0876-1443-9948-BFC97695843C}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3382,6 +3414,20 @@
       </c>
       <c r="F25" s="2"/>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logistics/Rosters.xlsx
+++ b/Logistics/Rosters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpruim/projects/github/JMM2019/Logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CA6D8-C51A-B549-BF20-1217DD24385C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF9527-1F50-8349-893A-D69E2B362A6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15500" activeTab="3" xr2:uid="{AECAB193-3CA1-8242-A385-6889D200F4EB}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15500" activeTab="1" xr2:uid="{AECAB193-3CA1-8242-A385-6889D200F4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="MC2" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="247">
   <si>
     <t>Max</t>
   </si>
@@ -1161,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4F9ED-4C0F-9748-94FA-08046731256F}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1876,6 +1876,20 @@
         <v>94</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1883,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F72D6F-8F28-534C-A98A-B6F7ABB3A10C}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,6 +2296,20 @@
         <v>94</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2291,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFD9C0-D986-A445-9050-436C9C79EAED}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3015,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1470E79-0876-1443-9948-BFC97695843C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,18 +3443,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" t="s">
-        <v>243</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
